--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Vegfb-Nrp1.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Vegfb-Nrp1.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.67765908135698</v>
+        <v>1.80847</v>
       </c>
       <c r="H2">
-        <v>1.67765908135698</v>
+        <v>5.42541</v>
       </c>
       <c r="I2">
-        <v>0.1007465204805761</v>
+        <v>0.1042562806587584</v>
       </c>
       <c r="J2">
-        <v>0.1007465204805761</v>
+        <v>0.1042562806587584</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>71.9291305893186</v>
+        <v>87.94127933333334</v>
       </c>
       <c r="N2">
-        <v>71.9291305893186</v>
+        <v>263.823838</v>
       </c>
       <c r="O2">
-        <v>0.3672978098881735</v>
+        <v>0.4109331243514438</v>
       </c>
       <c r="P2">
-        <v>0.3672978098881735</v>
+        <v>0.4109331243514437</v>
       </c>
       <c r="Q2">
-        <v>120.6725591472825</v>
+        <v>159.0391654359534</v>
       </c>
       <c r="R2">
-        <v>120.6725591472825</v>
+        <v>1431.35248892358</v>
       </c>
       <c r="S2">
-        <v>0.03700397632636963</v>
+        <v>0.04284235914436461</v>
       </c>
       <c r="T2">
-        <v>0.03700397632636963</v>
+        <v>0.0428423591443646</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.67765908135698</v>
+        <v>1.80847</v>
       </c>
       <c r="H3">
-        <v>1.67765908135698</v>
+        <v>5.42541</v>
       </c>
       <c r="I3">
-        <v>0.1007465204805761</v>
+        <v>0.1042562806587584</v>
       </c>
       <c r="J3">
-        <v>0.1007465204805761</v>
+        <v>0.1042562806587584</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>52.4311790690179</v>
+        <v>52.441971</v>
       </c>
       <c r="N3">
-        <v>52.4311790690179</v>
+        <v>157.325913</v>
       </c>
       <c r="O3">
-        <v>0.2677337691158564</v>
+        <v>0.2450515065683088</v>
       </c>
       <c r="P3">
-        <v>0.2677337691158564</v>
+        <v>0.2450515065683087</v>
       </c>
       <c r="Q3">
-        <v>87.96164371139189</v>
+        <v>94.83973129437001</v>
       </c>
       <c r="R3">
-        <v>87.96164371139189</v>
+        <v>853.5575816493301</v>
       </c>
       <c r="S3">
-        <v>0.02697324565357247</v>
+        <v>0.02554815864463719</v>
       </c>
       <c r="T3">
-        <v>0.02697324565357247</v>
+        <v>0.02554815864463719</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.67765908135698</v>
+        <v>1.80847</v>
       </c>
       <c r="H4">
-        <v>1.67765908135698</v>
+        <v>5.42541</v>
       </c>
       <c r="I4">
-        <v>0.1007465204805761</v>
+        <v>0.1042562806587584</v>
       </c>
       <c r="J4">
-        <v>0.1007465204805761</v>
+        <v>0.1042562806587584</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>52.9109501613042</v>
+        <v>54.667459</v>
       </c>
       <c r="N4">
-        <v>52.9109501613042</v>
+        <v>164.002377</v>
       </c>
       <c r="O4">
-        <v>0.2701836648674198</v>
+        <v>0.255450795093328</v>
       </c>
       <c r="P4">
-        <v>0.2701836648674198</v>
+        <v>0.255450795093328</v>
       </c>
       <c r="Q4">
-        <v>88.76653604133855</v>
+        <v>98.86445957773</v>
       </c>
       <c r="R4">
-        <v>88.76653604133855</v>
+        <v>889.7801361995701</v>
       </c>
       <c r="S4">
-        <v>0.02722006412608263</v>
+        <v>0.026632349787753</v>
       </c>
       <c r="T4">
-        <v>0.02722006412608263</v>
+        <v>0.02663234978775299</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.67765908135698</v>
+        <v>1.80847</v>
       </c>
       <c r="H5">
-        <v>1.67765908135698</v>
+        <v>5.42541</v>
       </c>
       <c r="I5">
-        <v>0.1007465204805761</v>
+        <v>0.1042562806587584</v>
       </c>
       <c r="J5">
-        <v>0.1007465204805761</v>
+        <v>0.1042562806587584</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>18.5620085878621</v>
+        <v>18.95316166666667</v>
       </c>
       <c r="N5">
-        <v>18.5620085878621</v>
+        <v>56.85948500000001</v>
       </c>
       <c r="O5">
-        <v>0.09478475612855036</v>
+        <v>0.08856457398691947</v>
       </c>
       <c r="P5">
-        <v>0.09478475612855036</v>
+        <v>0.08856457398691944</v>
       </c>
       <c r="Q5">
-        <v>31.1407222756531</v>
+        <v>34.27622427931667</v>
       </c>
       <c r="R5">
-        <v>31.1407222756531</v>
+        <v>308.4860185138501</v>
       </c>
       <c r="S5">
-        <v>0.009549234374551413</v>
+        <v>0.009233413082003653</v>
       </c>
       <c r="T5">
-        <v>0.009549234374551413</v>
+        <v>0.009233413082003651</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.01256620064626</v>
+        <v>6.255752333333334</v>
       </c>
       <c r="H6">
-        <v>6.01256620064626</v>
+        <v>18.767257</v>
       </c>
       <c r="I6">
-        <v>0.3610656840865841</v>
+        <v>0.360637152397155</v>
       </c>
       <c r="J6">
-        <v>0.3610656840865841</v>
+        <v>0.360637152397155</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>71.9291305893186</v>
+        <v>87.94127933333334</v>
       </c>
       <c r="N6">
-        <v>71.9291305893186</v>
+        <v>263.823838</v>
       </c>
       <c r="O6">
-        <v>0.3672978098881735</v>
+        <v>0.4109331243514438</v>
       </c>
       <c r="P6">
-        <v>0.3672978098881735</v>
+        <v>0.4109331243514437</v>
       </c>
       <c r="Q6">
-        <v>432.4786594232081</v>
+        <v>550.1388633858185</v>
       </c>
       <c r="R6">
-        <v>432.4786594232081</v>
+        <v>4951.249770472366</v>
       </c>
       <c r="S6">
-        <v>0.1326186349907774</v>
+        <v>0.1481977517917707</v>
       </c>
       <c r="T6">
-        <v>0.1326186349907774</v>
+        <v>0.1481977517917707</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>6.01256620064626</v>
+        <v>6.255752333333334</v>
       </c>
       <c r="H7">
-        <v>6.01256620064626</v>
+        <v>18.767257</v>
       </c>
       <c r="I7">
-        <v>0.3610656840865841</v>
+        <v>0.360637152397155</v>
       </c>
       <c r="J7">
-        <v>0.3610656840865841</v>
+        <v>0.360637152397155</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>52.4311790690179</v>
+        <v>52.441971</v>
       </c>
       <c r="N7">
-        <v>52.4311790690179</v>
+        <v>157.325913</v>
       </c>
       <c r="O7">
-        <v>0.2677337691158564</v>
+        <v>0.2450515065683088</v>
       </c>
       <c r="P7">
-        <v>0.2677337691158564</v>
+        <v>0.2450515065683087</v>
       </c>
       <c r="Q7">
-        <v>315.2459351304087</v>
+        <v>328.063982447849</v>
       </c>
       <c r="R7">
-        <v>315.2459351304087</v>
+        <v>2952.575842030642</v>
       </c>
       <c r="S7">
-        <v>0.09666947649889626</v>
+        <v>0.08837467751942761</v>
       </c>
       <c r="T7">
-        <v>0.09666947649889626</v>
+        <v>0.0883746775194276</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>6.01256620064626</v>
+        <v>6.255752333333334</v>
       </c>
       <c r="H8">
-        <v>6.01256620064626</v>
+        <v>18.767257</v>
       </c>
       <c r="I8">
-        <v>0.3610656840865841</v>
+        <v>0.360637152397155</v>
       </c>
       <c r="J8">
-        <v>0.3610656840865841</v>
+        <v>0.360637152397155</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>52.9109501613042</v>
+        <v>54.667459</v>
       </c>
       <c r="N8">
-        <v>52.9109501613042</v>
+        <v>164.002377</v>
       </c>
       <c r="O8">
-        <v>0.2701836648674198</v>
+        <v>0.255450795093328</v>
       </c>
       <c r="P8">
-        <v>0.2701836648674198</v>
+        <v>0.255450795093328</v>
       </c>
       <c r="Q8">
-        <v>318.1305905839364</v>
+        <v>341.9860841966544</v>
       </c>
       <c r="R8">
-        <v>318.1305905839364</v>
+        <v>3077.874757769889</v>
       </c>
       <c r="S8">
-        <v>0.0975540497843753</v>
+        <v>0.09212504732004696</v>
       </c>
       <c r="T8">
-        <v>0.0975540497843753</v>
+        <v>0.09212504732004695</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>6.01256620064626</v>
+        <v>6.255752333333334</v>
       </c>
       <c r="H9">
-        <v>6.01256620064626</v>
+        <v>18.767257</v>
       </c>
       <c r="I9">
-        <v>0.3610656840865841</v>
+        <v>0.360637152397155</v>
       </c>
       <c r="J9">
-        <v>0.3610656840865841</v>
+        <v>0.360637152397155</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>18.5620085878621</v>
+        <v>18.95316166666667</v>
       </c>
       <c r="N9">
-        <v>18.5620085878621</v>
+        <v>56.85948500000001</v>
       </c>
       <c r="O9">
-        <v>0.09478475612855036</v>
+        <v>0.08856457398691947</v>
       </c>
       <c r="P9">
-        <v>0.09478475612855036</v>
+        <v>0.08856457398691944</v>
       </c>
       <c r="Q9">
-        <v>111.6053054514853</v>
+        <v>118.5662853202939</v>
       </c>
       <c r="R9">
-        <v>111.6053054514853</v>
+        <v>1067.096567882645</v>
       </c>
       <c r="S9">
-        <v>0.03422352281253508</v>
+        <v>0.03193967576590979</v>
       </c>
       <c r="T9">
-        <v>0.03422352281253508</v>
+        <v>0.03193967576590978</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.43080596984191</v>
+        <v>3.749018666666667</v>
       </c>
       <c r="H10">
-        <v>3.43080596984191</v>
+        <v>11.247056</v>
       </c>
       <c r="I10">
-        <v>0.2060262229355844</v>
+        <v>0.2161267493001954</v>
       </c>
       <c r="J10">
-        <v>0.2060262229355844</v>
+        <v>0.2161267493001954</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>71.9291305893186</v>
+        <v>87.94127933333334</v>
       </c>
       <c r="N10">
-        <v>71.9291305893186</v>
+        <v>263.823838</v>
       </c>
       <c r="O10">
-        <v>0.3672978098881735</v>
+        <v>0.4109331243514438</v>
       </c>
       <c r="P10">
-        <v>0.3672978098881735</v>
+        <v>0.4109331243514437</v>
       </c>
       <c r="Q10">
-        <v>246.7748906313726</v>
+        <v>329.6934977912143</v>
       </c>
       <c r="R10">
-        <v>246.7748906313726</v>
+        <v>2967.241480120928</v>
       </c>
       <c r="S10">
-        <v>0.07567298046377272</v>
+        <v>0.08881364034585051</v>
       </c>
       <c r="T10">
-        <v>0.07567298046377272</v>
+        <v>0.0888136403458505</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.43080596984191</v>
+        <v>3.749018666666667</v>
       </c>
       <c r="H11">
-        <v>3.43080596984191</v>
+        <v>11.247056</v>
       </c>
       <c r="I11">
-        <v>0.2060262229355844</v>
+        <v>0.2161267493001954</v>
       </c>
       <c r="J11">
-        <v>0.2060262229355844</v>
+        <v>0.2161267493001954</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>52.4311790690179</v>
+        <v>52.441971</v>
       </c>
       <c r="N11">
-        <v>52.4311790690179</v>
+        <v>157.325913</v>
       </c>
       <c r="O11">
-        <v>0.2677337691158564</v>
+        <v>0.2450515065683088</v>
       </c>
       <c r="P11">
-        <v>0.2677337691158564</v>
+        <v>0.2450515065683087</v>
       </c>
       <c r="Q11">
-        <v>179.8812021558368</v>
+        <v>196.605928195792</v>
       </c>
       <c r="R11">
-        <v>179.8812021558368</v>
+        <v>1769.453353762128</v>
       </c>
       <c r="S11">
-        <v>0.05516017720324772</v>
+        <v>0.05296218552572406</v>
       </c>
       <c r="T11">
-        <v>0.05516017720324772</v>
+        <v>0.05296218552572404</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.43080596984191</v>
+        <v>3.749018666666667</v>
       </c>
       <c r="H12">
-        <v>3.43080596984191</v>
+        <v>11.247056</v>
       </c>
       <c r="I12">
-        <v>0.2060262229355844</v>
+        <v>0.2161267493001954</v>
       </c>
       <c r="J12">
-        <v>0.2060262229355844</v>
+        <v>0.2161267493001954</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>52.9109501613042</v>
+        <v>54.667459</v>
       </c>
       <c r="N12">
-        <v>52.9109501613042</v>
+        <v>164.002377</v>
       </c>
       <c r="O12">
-        <v>0.2701836648674198</v>
+        <v>0.255450795093328</v>
       </c>
       <c r="P12">
-        <v>0.2701836648674198</v>
+        <v>0.255450795093328</v>
       </c>
       <c r="Q12">
-        <v>181.5272036834102</v>
+        <v>204.9493242502347</v>
       </c>
       <c r="R12">
-        <v>181.5272036834102</v>
+        <v>1844.543918252112</v>
       </c>
       <c r="S12">
-        <v>0.05566491997152825</v>
+        <v>0.05520974994967129</v>
       </c>
       <c r="T12">
-        <v>0.05566491997152825</v>
+        <v>0.05520974994967127</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.43080596984191</v>
+        <v>3.749018666666667</v>
       </c>
       <c r="H13">
-        <v>3.43080596984191</v>
+        <v>11.247056</v>
       </c>
       <c r="I13">
-        <v>0.2060262229355844</v>
+        <v>0.2161267493001954</v>
       </c>
       <c r="J13">
-        <v>0.2060262229355844</v>
+        <v>0.2161267493001954</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>18.5620085878621</v>
+        <v>18.95316166666667</v>
       </c>
       <c r="N13">
-        <v>18.5620085878621</v>
+        <v>56.85948500000001</v>
       </c>
       <c r="O13">
-        <v>0.09478475612855036</v>
+        <v>0.08856457398691947</v>
       </c>
       <c r="P13">
-        <v>0.09478475612855036</v>
+        <v>0.08856457398691944</v>
       </c>
       <c r="Q13">
-        <v>63.68264987549409</v>
+        <v>71.05575688068446</v>
       </c>
       <c r="R13">
-        <v>63.68264987549409</v>
+        <v>639.5018119261601</v>
       </c>
       <c r="S13">
-        <v>0.01952814529703571</v>
+        <v>0.01914117347894955</v>
       </c>
       <c r="T13">
-        <v>0.01952814529703571</v>
+        <v>0.01914117347894954</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>5.53124689487687</v>
+        <v>5.533148</v>
       </c>
       <c r="H14">
-        <v>5.53124689487687</v>
+        <v>16.599444</v>
       </c>
       <c r="I14">
-        <v>0.3321615724972555</v>
+        <v>0.3189798176438912</v>
       </c>
       <c r="J14">
-        <v>0.3321615724972555</v>
+        <v>0.3189798176438912</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>71.9291305893186</v>
+        <v>87.94127933333334</v>
       </c>
       <c r="N14">
-        <v>71.9291305893186</v>
+        <v>263.823838</v>
       </c>
       <c r="O14">
-        <v>0.3672978098881735</v>
+        <v>0.4109331243514438</v>
       </c>
       <c r="P14">
-        <v>0.3672978098881735</v>
+        <v>0.4109331243514437</v>
       </c>
       <c r="Q14">
-        <v>397.8577802233614</v>
+        <v>486.5921138606747</v>
       </c>
       <c r="R14">
-        <v>397.8577802233614</v>
+        <v>4379.329024746072</v>
       </c>
       <c r="S14">
-        <v>0.1220022181072537</v>
+        <v>0.131079373069458</v>
       </c>
       <c r="T14">
-        <v>0.1220022181072537</v>
+        <v>0.131079373069458</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>5.53124689487687</v>
+        <v>5.533148</v>
       </c>
       <c r="H15">
-        <v>5.53124689487687</v>
+        <v>16.599444</v>
       </c>
       <c r="I15">
-        <v>0.3321615724972555</v>
+        <v>0.3189798176438912</v>
       </c>
       <c r="J15">
-        <v>0.3321615724972555</v>
+        <v>0.3189798176438912</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>52.4311790690179</v>
+        <v>52.441971</v>
       </c>
       <c r="N15">
-        <v>52.4311790690179</v>
+        <v>157.325913</v>
       </c>
       <c r="O15">
-        <v>0.2677337691158564</v>
+        <v>0.2450515065683088</v>
       </c>
       <c r="P15">
-        <v>0.2677337691158564</v>
+        <v>0.2450515065683087</v>
       </c>
       <c r="Q15">
-        <v>290.0097964202384</v>
+        <v>290.169186954708</v>
       </c>
       <c r="R15">
-        <v>290.0097964202384</v>
+        <v>2611.522682592372</v>
       </c>
       <c r="S15">
-        <v>0.08893086976014003</v>
+        <v>0.07816648487851995</v>
       </c>
       <c r="T15">
-        <v>0.08893086976014003</v>
+        <v>0.07816648487851992</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>5.53124689487687</v>
+        <v>5.533148</v>
       </c>
       <c r="H16">
-        <v>5.53124689487687</v>
+        <v>16.599444</v>
       </c>
       <c r="I16">
-        <v>0.3321615724972555</v>
+        <v>0.3189798176438912</v>
       </c>
       <c r="J16">
-        <v>0.3321615724972555</v>
+        <v>0.3189798176438912</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>52.9109501613042</v>
+        <v>54.667459</v>
       </c>
       <c r="N16">
-        <v>52.9109501613042</v>
+        <v>164.002377</v>
       </c>
       <c r="O16">
-        <v>0.2701836648674198</v>
+        <v>0.255450795093328</v>
       </c>
       <c r="P16">
-        <v>0.2701836648674198</v>
+        <v>0.255450795093328</v>
       </c>
       <c r="Q16">
-        <v>292.6635287846987</v>
+        <v>302.483141430932</v>
       </c>
       <c r="R16">
-        <v>292.6635287846987</v>
+        <v>2722.348272878387</v>
       </c>
       <c r="S16">
-        <v>0.08974463098543366</v>
+        <v>0.0814836480358568</v>
       </c>
       <c r="T16">
-        <v>0.08974463098543366</v>
+        <v>0.08148364803585677</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>5.53124689487687</v>
+        <v>5.533148</v>
       </c>
       <c r="H17">
-        <v>5.53124689487687</v>
+        <v>16.599444</v>
       </c>
       <c r="I17">
-        <v>0.3321615724972555</v>
+        <v>0.3189798176438912</v>
       </c>
       <c r="J17">
-        <v>0.3321615724972555</v>
+        <v>0.3189798176438912</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>18.5620085878621</v>
+        <v>18.95316166666667</v>
       </c>
       <c r="N17">
-        <v>18.5620085878621</v>
+        <v>56.85948500000001</v>
       </c>
       <c r="O17">
-        <v>0.09478475612855036</v>
+        <v>0.08856457398691947</v>
       </c>
       <c r="P17">
-        <v>0.09478475612855036</v>
+        <v>0.08856457398691944</v>
       </c>
       <c r="Q17">
-        <v>102.67105236429</v>
+        <v>104.8706485695933</v>
       </c>
       <c r="R17">
-        <v>102.67105236429</v>
+        <v>943.83583712634</v>
       </c>
       <c r="S17">
-        <v>0.03148385364442817</v>
+        <v>0.02825031166005649</v>
       </c>
       <c r="T17">
-        <v>0.03148385364442817</v>
+        <v>0.02825031166005647</v>
       </c>
     </row>
   </sheetData>
